--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H2">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I2">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J2">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N2">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O2">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P2">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q2">
-        <v>2004.199344213648</v>
+        <v>3618.926562523388</v>
       </c>
       <c r="R2">
-        <v>8016.797376854593</v>
+        <v>14475.70625009355</v>
       </c>
       <c r="S2">
-        <v>0.02919868391806569</v>
+        <v>0.05729993992607297</v>
       </c>
       <c r="T2">
-        <v>0.01615665163350109</v>
+        <v>0.03447902053474153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H3">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I3">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J3">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.424846</v>
       </c>
       <c r="O3">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P3">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q3">
-        <v>4.457773670548667</v>
+        <v>7.515806890143002</v>
       </c>
       <c r="R3">
-        <v>26.746642023292</v>
+        <v>45.094841340858</v>
       </c>
       <c r="S3">
-        <v>6.49442006656753E-05</v>
+        <v>0.0001190008351539673</v>
       </c>
       <c r="T3">
-        <v>5.390384179896025E-05</v>
+        <v>0.0001074093335233509</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H4">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I4">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J4">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N4">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O4">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P4">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q4">
-        <v>715.8935615973041</v>
+        <v>606.1497681944895</v>
       </c>
       <c r="R4">
-        <v>4295.361369583825</v>
+        <v>3636.898609166938</v>
       </c>
       <c r="S4">
-        <v>0.01042967601222291</v>
+        <v>0.009597416444817078</v>
       </c>
       <c r="T4">
-        <v>0.008656656021858028</v>
+        <v>0.008662561926982273</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H5">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I5">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J5">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N5">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O5">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P5">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q5">
-        <v>56.7297194119065</v>
+        <v>127.464549883119</v>
       </c>
       <c r="R5">
-        <v>226.918877647626</v>
+        <v>509.8581995324761</v>
       </c>
       <c r="S5">
-        <v>0.0008264812333419449</v>
+        <v>0.002018198193531166</v>
       </c>
       <c r="T5">
-        <v>0.0004573209328955512</v>
+        <v>0.001214407851870645</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H6">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I6">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J6">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N6">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O6">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P6">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q6">
-        <v>1370.888282600407</v>
+        <v>336.8742432812745</v>
       </c>
       <c r="R6">
-        <v>8225.329695602442</v>
+        <v>2021.245459687647</v>
       </c>
       <c r="S6">
-        <v>0.01997213189705653</v>
+        <v>0.005333867258472054</v>
       </c>
       <c r="T6">
-        <v>0.0165769172171196</v>
+        <v>0.004814311820528485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H7">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I7">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J7">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N7">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O7">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P7">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q7">
-        <v>548.309418350433</v>
+        <v>1621.093551869606</v>
       </c>
       <c r="R7">
-        <v>3289.856510102598</v>
+        <v>9726.561311217634</v>
       </c>
       <c r="S7">
-        <v>0.00798818413045348</v>
+        <v>0.02566743522750673</v>
       </c>
       <c r="T7">
-        <v>0.006630211923703132</v>
+        <v>0.02316725010772638</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>109.339678</v>
       </c>
       <c r="I8">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J8">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N8">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O8">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P8">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q8">
-        <v>7782.625085990049</v>
+        <v>8335.033813566717</v>
       </c>
       <c r="R8">
-        <v>46695.75051594029</v>
+        <v>50010.2028814003</v>
       </c>
       <c r="S8">
-        <v>0.1133831375580014</v>
+        <v>0.1319719890823491</v>
       </c>
       <c r="T8">
-        <v>0.09410827521088411</v>
+        <v>0.1191170076474333</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>109.339678</v>
       </c>
       <c r="I9">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J9">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.424846</v>
       </c>
       <c r="O9">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P9">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q9">
         <v>17.31024475995422</v>
@@ -1013,10 +1013,10 @@
         <v>155.792202839588</v>
       </c>
       <c r="S9">
-        <v>0.0002521886691308968</v>
+        <v>0.0002740801637487183</v>
       </c>
       <c r="T9">
-        <v>0.0003139757973379818</v>
+        <v>0.0003710742997996424</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>109.339678</v>
       </c>
       <c r="I10">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J10">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N10">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O10">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P10">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q10">
-        <v>2779.928657032838</v>
+        <v>1396.071107467809</v>
       </c>
       <c r="R10">
-        <v>25019.35791329554</v>
+        <v>12564.63996721028</v>
       </c>
       <c r="S10">
-        <v>0.04050009217188023</v>
+        <v>0.02210456310963471</v>
       </c>
       <c r="T10">
-        <v>0.05042275997470635</v>
+        <v>0.02992713944014149</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>109.339678</v>
       </c>
       <c r="I11">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J11">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N11">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O11">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P11">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q11">
-        <v>220.290530825169</v>
+        <v>293.5736094534227</v>
       </c>
       <c r="R11">
-        <v>1321.743184951014</v>
+        <v>1761.441656720536</v>
       </c>
       <c r="S11">
-        <v>0.003209358189981197</v>
+        <v>0.004648270666711772</v>
       </c>
       <c r="T11">
-        <v>0.002663774969523601</v>
+        <v>0.004195497062702831</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>109.339678</v>
       </c>
       <c r="I12">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J12">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N12">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O12">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P12">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q12">
-        <v>5323.377422040716</v>
+        <v>775.8815107624824</v>
       </c>
       <c r="R12">
-        <v>47910.39679836644</v>
+        <v>6982.933596862342</v>
       </c>
       <c r="S12">
-        <v>0.07755496735965638</v>
+        <v>0.01228484833509347</v>
       </c>
       <c r="T12">
-        <v>0.09655621245072815</v>
+        <v>0.01663232913954697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>109.339678</v>
       </c>
       <c r="I13">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J13">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N13">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O13">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P13">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q13">
-        <v>2129.172752430458</v>
+        <v>3733.667797991082</v>
       </c>
       <c r="R13">
-        <v>19162.55477187412</v>
+        <v>33603.01018191974</v>
       </c>
       <c r="S13">
-        <v>0.03101939055347162</v>
+        <v>0.0591166846943774</v>
       </c>
       <c r="T13">
-        <v>0.03861925246494471</v>
+        <v>0.0800374681604258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H14">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I14">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J14">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N14">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O14">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P14">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q14">
-        <v>7496.444506014705</v>
+        <v>8605.760000457491</v>
       </c>
       <c r="R14">
-        <v>44978.66703608823</v>
+        <v>51634.56000274495</v>
       </c>
       <c r="S14">
-        <v>0.1092138435592214</v>
+        <v>0.13625850719131</v>
       </c>
       <c r="T14">
-        <v>0.0906477512253703</v>
+        <v>0.1229859893451127</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H15">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I15">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J15">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.424846</v>
       </c>
       <c r="O15">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P15">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q15">
-        <v>16.67371713204156</v>
+        <v>17.87249041640022</v>
       </c>
       <c r="R15">
-        <v>150.063454188374</v>
+        <v>160.852413747602</v>
       </c>
       <c r="S15">
-        <v>0.0002429152557520344</v>
+        <v>0.0002829824284897821</v>
       </c>
       <c r="T15">
-        <v>0.0003024303644297263</v>
+        <v>0.0003831269839860468</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H16">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I16">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J16">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N16">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O16">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P16">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q16">
-        <v>2677.705874029726</v>
+        <v>1441.416215359028</v>
       </c>
       <c r="R16">
-        <v>24099.35286626753</v>
+        <v>12972.74593823125</v>
       </c>
       <c r="S16">
-        <v>0.03901083376115863</v>
+        <v>0.02282253069289963</v>
       </c>
       <c r="T16">
-        <v>0.04856862791334118</v>
+        <v>0.03089918832757258</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H17">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I17">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J17">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N17">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O17">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P17">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q17">
-        <v>212.1900671412495</v>
+        <v>303.1090313409406</v>
       </c>
       <c r="R17">
-        <v>1273.140402847497</v>
+        <v>1818.654188045644</v>
       </c>
       <c r="S17">
-        <v>0.003091344540600758</v>
+        <v>0.004799248889641935</v>
       </c>
       <c r="T17">
-        <v>0.002565823358431045</v>
+        <v>0.004331768966009117</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H18">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I18">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J18">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N18">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O18">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P18">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q18">
-        <v>5127.627630519895</v>
+        <v>801.0825414464713</v>
       </c>
       <c r="R18">
-        <v>46148.64867467905</v>
+        <v>7209.742873018243</v>
       </c>
       <c r="S18">
-        <v>0.07470313712323534</v>
+        <v>0.01268386652994206</v>
       </c>
       <c r="T18">
-        <v>0.09300567358060903</v>
+        <v>0.01717255574783413</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H19">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I19">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J19">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N19">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O19">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P19">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q19">
-        <v>2050.879389146759</v>
+        <v>3854.939249154453</v>
       </c>
       <c r="R19">
-        <v>18457.91450232083</v>
+        <v>34694.45324239007</v>
       </c>
       <c r="S19">
-        <v>0.02987875393266684</v>
+        <v>0.06103682503056691</v>
       </c>
       <c r="T19">
-        <v>0.03719915578207512</v>
+        <v>0.08263712630796625</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H20">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I20">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J20">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N20">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O20">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P20">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q20">
-        <v>3202.982382851184</v>
+        <v>5001.651798021725</v>
       </c>
       <c r="R20">
-        <v>12811.92953140474</v>
+        <v>20006.6071920869</v>
       </c>
       <c r="S20">
-        <v>0.0466634571366445</v>
+        <v>0.07919319240287223</v>
       </c>
       <c r="T20">
-        <v>0.02582052064699772</v>
+        <v>0.04765281971662099</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H21">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I21">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J21">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.424846</v>
       </c>
       <c r="O21">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P21">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q21">
-        <v>7.124126936139334</v>
+        <v>10.38745837922067</v>
       </c>
       <c r="R21">
-        <v>42.744761616836</v>
+        <v>62.324750275324</v>
       </c>
       <c r="S21">
-        <v>0.0001037896410858897</v>
+        <v>0.0001644688641316084</v>
       </c>
       <c r="T21">
-        <v>8.614565020617136E-05</v>
+        <v>0.0001484484630621491</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H22">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I22">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J22">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N22">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O22">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P22">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q22">
-        <v>1144.095008519432</v>
+        <v>837.7484388206143</v>
       </c>
       <c r="R22">
-        <v>6864.570051116592</v>
+        <v>5026.490632923686</v>
       </c>
       <c r="S22">
-        <v>0.01666803685094633</v>
+        <v>0.0132644126340357</v>
       </c>
       <c r="T22">
-        <v>0.01383451043054436</v>
+        <v>0.01197236741033907</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H23">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I23">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J23">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N23">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O23">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P23">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q23">
-        <v>90.6617859071895</v>
+        <v>176.166408489482</v>
       </c>
       <c r="R23">
-        <v>362.647143628758</v>
+        <v>704.6656339579281</v>
       </c>
       <c r="S23">
-        <v>0.001320829107041747</v>
+        <v>0.002789314579625188</v>
       </c>
       <c r="T23">
-        <v>0.0007308608774883283</v>
+        <v>0.001678410741666234</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H24">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I24">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J24">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N24">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O24">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P24">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q24">
-        <v>2190.865410021881</v>
+        <v>465.5876916828443</v>
       </c>
       <c r="R24">
-        <v>13145.19246013129</v>
+        <v>2793.526150097066</v>
       </c>
       <c r="S24">
-        <v>0.03191817560410948</v>
+        <v>0.007371839771499521</v>
       </c>
       <c r="T24">
-        <v>0.02649216205050138</v>
+        <v>0.006653771762805127</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H25">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I25">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J25">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N25">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O25">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P25">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q25">
-        <v>876.2728180698389</v>
+        <v>2240.483562843129</v>
       </c>
       <c r="R25">
-        <v>5257.636908419034</v>
+        <v>13442.90137705877</v>
       </c>
       <c r="S25">
-        <v>0.01276620168282344</v>
+        <v>0.03547448983511545</v>
       </c>
       <c r="T25">
-        <v>0.01059597791382531</v>
+        <v>0.03201902999538411</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H26">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I26">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J26">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N26">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O26">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P26">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q26">
-        <v>2035.815800103024</v>
+        <v>3125.087656950234</v>
       </c>
       <c r="R26">
-        <v>12214.89480061815</v>
+        <v>18750.5259417014</v>
       </c>
       <c r="S26">
-        <v>0.02965929623429492</v>
+        <v>0.04948078716526962</v>
       </c>
       <c r="T26">
-        <v>0.02461728677379675</v>
+        <v>0.04466101741854207</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H27">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I27">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J27">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.424846</v>
       </c>
       <c r="O27">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P27">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q27">
-        <v>4.528095520032667</v>
+        <v>6.490199493860445</v>
       </c>
       <c r="R27">
-        <v>40.752859680294</v>
+        <v>58.41179544474401</v>
       </c>
       <c r="S27">
-        <v>6.596870227602919E-05</v>
+        <v>0.0001027619750446454</v>
       </c>
       <c r="T27">
-        <v>8.213127087687463E-05</v>
+        <v>0.0001391283754875473</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H28">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I28">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J28">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N28">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O28">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P28">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q28">
-        <v>727.1868579837521</v>
+        <v>523.4345395301463</v>
       </c>
       <c r="R28">
-        <v>6544.681721853768</v>
+        <v>4710.910855771316</v>
       </c>
       <c r="S28">
-        <v>0.01059420525056088</v>
+        <v>0.008287752501226727</v>
       </c>
       <c r="T28">
-        <v>0.01318982352446841</v>
+        <v>0.01122070241874563</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H29">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I29">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J29">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N29">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O29">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P29">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q29">
-        <v>57.6246367147095</v>
+        <v>110.0707308248614</v>
       </c>
       <c r="R29">
-        <v>345.747820288257</v>
+        <v>660.4243849491681</v>
       </c>
       <c r="S29">
-        <v>0.0008395190619056525</v>
+        <v>0.001742794763838965</v>
       </c>
       <c r="T29">
-        <v>0.0006968028282175987</v>
+        <v>0.001573034540553712</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H30">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I30">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J30">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N30">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O30">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P30">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q30">
-        <v>1392.514189744441</v>
+        <v>290.9043666497329</v>
       </c>
       <c r="R30">
-        <v>12532.62770769997</v>
+        <v>2618.139299847596</v>
       </c>
       <c r="S30">
-        <v>0.02028719438271354</v>
+        <v>0.004606007456984498</v>
       </c>
       <c r="T30">
-        <v>0.02525762975003831</v>
+        <v>0.006236025871392332</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H31">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I31">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J31">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N31">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O31">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P31">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q31">
-        <v>556.9590572144789</v>
+        <v>1399.879042081716</v>
       </c>
       <c r="R31">
-        <v>5012.631514930311</v>
+        <v>12598.91137873545</v>
       </c>
       <c r="S31">
-        <v>0.008114198577033287</v>
+        <v>0.02216485569110869</v>
       </c>
       <c r="T31">
-        <v>0.01010220632339511</v>
+        <v>0.03000876894279343</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H32">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I32">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J32">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N32">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O32">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P32">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q32">
-        <v>6744.819224156528</v>
+        <v>7489.833739767866</v>
       </c>
       <c r="R32">
-        <v>40468.91534493917</v>
+        <v>44939.0024386072</v>
       </c>
       <c r="S32">
-        <v>0.09826360096326109</v>
+        <v>0.1185895916732076</v>
       </c>
       <c r="T32">
-        <v>0.08155902369461718</v>
+        <v>0.1070381479923664</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H33">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I33">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J33">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.424846</v>
       </c>
       <c r="O33">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P33">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q33">
-        <v>15.00193962085755</v>
+        <v>15.55492852779022</v>
       </c>
       <c r="R33">
-        <v>135.017456587718</v>
+        <v>139.994356750112</v>
       </c>
       <c r="S33">
-        <v>0.0002185595431971317</v>
+        <v>0.0002462875260931682</v>
       </c>
       <c r="T33">
-        <v>0.0002721074149668735</v>
+        <v>0.0003334461350446268</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H34">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I34">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J34">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N34">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O34">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P34">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q34">
-        <v>2409.227740070877</v>
+        <v>1254.504866771863</v>
       </c>
       <c r="R34">
-        <v>21683.04966063789</v>
+        <v>11290.54380094677</v>
       </c>
       <c r="S34">
-        <v>0.03509944231448981</v>
+        <v>0.01986308709532687</v>
       </c>
       <c r="T34">
-        <v>0.04369893153720711</v>
+        <v>0.02689242824050304</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H35">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I35">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J35">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N35">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O35">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P35">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q35">
-        <v>190.9149921514215</v>
+        <v>263.8042717488107</v>
       </c>
       <c r="R35">
-        <v>1145.489952908529</v>
+        <v>1582.825630492864</v>
       </c>
       <c r="S35">
-        <v>0.002781393241716931</v>
+        <v>0.004176920604022506</v>
       </c>
       <c r="T35">
-        <v>0.002308563039431593</v>
+        <v>0.003770059745190392</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H36">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I36">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J36">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N36">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O36">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P36">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q36">
-        <v>4613.50996314291</v>
+        <v>697.2045521773564</v>
       </c>
       <c r="R36">
-        <v>41521.58966828619</v>
+        <v>6274.840969596207</v>
       </c>
       <c r="S36">
-        <v>0.06721308414533476</v>
+        <v>0.01103912396832146</v>
       </c>
       <c r="T36">
-        <v>0.08368053076612585</v>
+        <v>0.01494575579975912</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H37">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I37">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J37">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N37">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O37">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P37">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q37">
-        <v>1845.249533861662</v>
+        <v>3355.061499685968</v>
       </c>
       <c r="R37">
-        <v>16607.24580475496</v>
+        <v>30195.55349717371</v>
       </c>
       <c r="S37">
-        <v>0.02688298349400179</v>
+        <v>0.0531220567919562</v>
       </c>
       <c r="T37">
-        <v>0.03346941084403748</v>
+        <v>0.07192140342584047</v>
       </c>
     </row>
   </sheetData>
